--- a/jour33.xlsx
+++ b/jour33.xlsx
@@ -40,121 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Tolisso', 'Lega', 'Caqueret']</t>
-  </si>
-  <si>
-    <t>['Dante']</t>
-  </si>
-  <si>
-    <t>['Embolo']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Delaine', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Danois']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Savanier']</t>
-  </si>
-  <si>
-    <t>['Serhuis']</t>
-  </si>
-  <si>
-    <t>['Hamouma']</t>
-  </si>
-  <si>
-    <t>['Majer']</t>
+    <t>['Beka', 'Attal']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Sanchez', 'Bercola', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
+  </si>
+  <si>
+    <t>['Ripart', 'Palaversa', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Alioui']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Magnetti']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Majer']</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Simon', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Magnetti', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Silva', 'Laporte', 'Pelon']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Ounahi', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Lopez']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Cabella', 'David', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Le_Cardinal', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Borges', 'Bayo']</t>
+    <t>['Desler', 'Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Gonzalez', 'Alphonse']</t>
+  </si>
+  <si>
+    <t>['Martin', 'David', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Dugimont']</t>
+  </si>
+  <si>
+    <t>['Castelletto']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Savanier', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Fortes']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Gameiro', 'Gameiro']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -558,19 +558,19 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,7 +587,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -596,7 +596,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -625,7 +625,7 @@
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -654,7 +654,7 @@
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
         <v>3</v>
@@ -665,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -683,7 +683,7 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,19 +703,19 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -735,16 +735,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -764,16 +764,16 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,19 +790,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour33.xlsx
+++ b/jour33.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Beka', 'Attal']</t>
+    <t>['Nordin', 'Khazri']</t>
+  </si>
+  <si>
+    <t>['Medina']</t>
+  </si>
+  <si>
+    <t>['Le_Goff', 'Ponceau', 'Innocent']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Jakobs']</t>
+  </si>
+  <si>
+    <t>['Mounie', 'Le_Douaron', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Payet', 'Harit', 'Clauss']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Michelin']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Majer', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen', 'Van_den_Boomen', 'Healey']</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>['Masson', 'Corduan', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Salmier', 'Porozo']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Lipinski']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Le_Fee']</t>
-  </si>
-  <si>
-    <t>['Sanchez', 'Bercola', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Versini']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Palaversa', 'Chavalerin']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Verrati']</t>
-  </si>
-  <si>
-    <t>['Alioui']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Magnetti']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Majer']</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>['Desler', 'Aboukhlal']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Gonzalez', 'Alphonse']</t>
-  </si>
-  <si>
-    <t>['Martin', 'David', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Dugimont']</t>
-  </si>
-  <si>
-    <t>['Castelletto']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Ounahi']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Savanier', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Fortes']</t>
-  </si>
-  <si>
-    <t>['H.Diallo', 'Gameiro', 'Gameiro']</t>
+    <t>['Gameiro', 'Perrin']</t>
+  </si>
+  <si>
+    <t>['Munetsi', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Coco', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Neymar', 'Ruiz', 'Mbappe']</t>
   </si>
 </sst>
 </file>
@@ -561,16 +564,16 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -578,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -596,7 +599,7 @@
         <v>29</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -607,7 +610,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -616,19 +619,19 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -636,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,19 +648,19 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -665,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -674,19 +677,19 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -706,16 +709,16 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -723,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -741,7 +744,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -752,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,19 +764,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -781,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,19 +793,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -810,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -819,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>3</v>
@@ -828,7 +831,7 @@
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour33.xlsx
+++ b/jour33.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="45">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,112 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Nordin', 'Khazri']</t>
-  </si>
-  <si>
-    <t>['Medina']</t>
-  </si>
-  <si>
-    <t>['Le_Goff', 'Ponceau', 'Innocent']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Embolo', 'Jakobs']</t>
-  </si>
-  <si>
-    <t>['Mounie', 'Le_Douaron', 'Le_Douaron']</t>
-  </si>
-  <si>
-    <t>['Payet', 'Harit', 'Clauss']</t>
-  </si>
-  <si>
-    <t>['Silla', 'Michelin']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Majer', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Van_den_Boomen', 'Van_den_Boomen', 'Healey']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Cherki', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Diallo']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Corduan']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Spierings']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Maurer', 'Gastien']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Gomes']</t>
+  </si>
+  <si>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Santamaria']</t>
+  </si>
+  <si>
+    <t>['Sylla']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>PSG</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Masson', 'Corduan', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Burlet', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Salmier', 'Porozo']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Lipinski']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Gameiro', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Munetsi', 'Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Coco', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Neymar', 'Ruiz', 'Mbappe']</t>
+    <t>['Soler', 'Kipembe', 'Mendes']</t>
+  </si>
+  <si>
+    <t>['Tolisso', 'Cherki', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Serhuis']</t>
+  </si>
+  <si>
+    <t>['Lopez']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Ramos', 'Mendes', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Tagliafico', 'Lepenant', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Onaiwu', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Kipembe', 'Soler']</t>
+  </si>
+  <si>
+    <t>['Verrati']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +537,396 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
+        <v>55</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
       </c>
       <c r="F2">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>51</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
         <v>38</v>
       </c>
-      <c r="I2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" t="s">
         <v>39</v>
       </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>42</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+        <v>32</v>
+      </c>
+      <c r="I11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+      <c r="K11">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>55</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
